--- a/Buyer hub/Orders/Manual testcases/Final Orders testcases.xlsx
+++ b/Buyer hub/Orders/Manual testcases/Final Orders testcases.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Testcases one group\Buyer hub\Orders\Manual testcases\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\zm-buyerautomation\Buyer hub\Orders\Manual testcases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3207237-67F3-4172-84D2-29F2BC336B7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF115918-D7D6-4FBA-BDAC-49DBA96248E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -357,9 +357,6 @@
     <t>View all orders</t>
   </si>
   <si>
-    <t>1.Click the Placed order ,it shows details of order,right side Repeat, Receive and PDF                                                                                      2.Details ,Activity and Cancel order</t>
-  </si>
-  <si>
     <t xml:space="preserve">It gets displayed </t>
   </si>
   <si>
@@ -760,6 +757,22 @@
         <family val="2"/>
       </rPr>
       <t xml:space="preserve"> Mark as received</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1.Click the Placed order ,it shows details of order,right side Repeat, Receive and PDF                                                                                      2.Details ,Activity and Cancel order                                                                3.Order below should </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>show Placed on and Date</t>
     </r>
   </si>
 </sst>
@@ -1223,8 +1236,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A30" sqref="A30"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1350,7 +1363,7 @@
         <v>38</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>19</v>
@@ -1360,7 +1373,7 @@
       </c>
       <c r="H5" s="10"/>
     </row>
-    <row r="6" spans="1:8" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="11">
         <v>5</v>
       </c>
@@ -1371,13 +1384,13 @@
         <v>39</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G6" s="9" t="s">
         <v>13</v>
@@ -1395,13 +1408,13 @@
         <v>48</v>
       </c>
       <c r="D7" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="F7" s="4" t="s">
         <v>62</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>63</v>
       </c>
       <c r="G7" s="9" t="s">
         <v>13</v>
@@ -1419,10 +1432,10 @@
         <v>48</v>
       </c>
       <c r="D8" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="E8" s="7" t="s">
         <v>66</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>67</v>
       </c>
       <c r="F8" s="7" t="s">
         <v>35</v>
@@ -1456,7 +1469,7 @@
       </c>
       <c r="H9" s="10"/>
     </row>
-    <row r="10" spans="1:8" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" ht="76.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="11">
         <v>9</v>
       </c>
@@ -1470,10 +1483,10 @@
         <v>24</v>
       </c>
       <c r="E10" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="F10" s="4" t="s">
         <v>49</v>
-      </c>
-      <c r="F10" s="4" t="s">
-        <v>50</v>
       </c>
       <c r="G10" s="9" t="s">
         <v>13</v>
@@ -1491,20 +1504,20 @@
         <v>48</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E11" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="F11" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="F11" s="4" t="s">
-        <v>52</v>
-      </c>
       <c r="G11" s="9" t="s">
         <v>13</v>
       </c>
       <c r="H11" s="10"/>
     </row>
-    <row r="12" spans="1:8" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="11">
         <v>11</v>
       </c>
@@ -1515,13 +1528,13 @@
         <v>39</v>
       </c>
       <c r="D12" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="E12" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="E12" s="2" t="s">
+      <c r="F12" s="4" t="s">
         <v>56</v>
-      </c>
-      <c r="F12" s="4" t="s">
-        <v>57</v>
       </c>
       <c r="G12" s="9" t="s">
         <v>13</v>
@@ -1539,20 +1552,20 @@
         <v>48</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E13" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="F13" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="F13" s="4" t="s">
-        <v>52</v>
-      </c>
       <c r="G13" s="9" t="s">
         <v>13</v>
       </c>
       <c r="H13" s="10"/>
     </row>
-    <row r="14" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="11">
         <v>13</v>
       </c>
@@ -1563,10 +1576,10 @@
         <v>39</v>
       </c>
       <c r="D14" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="E14" s="2" t="s">
         <v>53</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>54</v>
       </c>
       <c r="F14" s="4" t="s">
         <v>26</v>
@@ -1611,10 +1624,10 @@
         <v>48</v>
       </c>
       <c r="D16" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="E16" s="2" t="s">
         <v>68</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>69</v>
       </c>
       <c r="F16" s="4" t="s">
         <v>22</v>
@@ -1635,10 +1648,10 @@
         <v>48</v>
       </c>
       <c r="D17" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="E17" s="2" t="s">
         <v>70</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>71</v>
       </c>
       <c r="F17" s="4" t="s">
         <v>22</v>
@@ -1648,7 +1661,7 @@
       </c>
       <c r="H17" s="10"/>
     </row>
-    <row r="18" spans="1:8" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="9">
         <v>17</v>
       </c>
@@ -1662,7 +1675,7 @@
         <v>40</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F18" s="4" t="s">
         <v>37</v>
@@ -1672,7 +1685,7 @@
       </c>
       <c r="H18" s="10"/>
     </row>
-    <row r="19" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="15">
         <v>18</v>
       </c>
@@ -1696,7 +1709,7 @@
       </c>
       <c r="H19" s="10"/>
     </row>
-    <row r="20" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="15">
         <v>19</v>
       </c>
@@ -1720,7 +1733,7 @@
       </c>
       <c r="H20" s="10"/>
     </row>
-    <row r="21" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="15">
         <v>20</v>
       </c>
@@ -1744,7 +1757,7 @@
       </c>
       <c r="H21" s="10"/>
     </row>
-    <row r="22" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="15">
         <v>21</v>
       </c>
@@ -1782,10 +1795,10 @@
         <v>42</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="F23" s="7" t="s">
         <v>73</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>74</v>
       </c>
       <c r="G23" s="9" t="s">
         <v>13</v>
@@ -1803,13 +1816,13 @@
         <v>20</v>
       </c>
       <c r="D24" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="F24" s="7" t="s">
         <v>75</v>
-      </c>
-      <c r="E24" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>76</v>
       </c>
       <c r="G24" s="13" t="s">
         <v>13</v>
@@ -1827,10 +1840,10 @@
         <v>20</v>
       </c>
       <c r="D25" s="14" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E25" s="6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F25" s="5" t="s">
         <v>22</v>
@@ -1850,10 +1863,10 @@
         <v>20</v>
       </c>
       <c r="D26" s="14" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E26" s="6" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F26" s="7" t="s">
         <v>22</v>
@@ -1873,10 +1886,10 @@
         <v>20</v>
       </c>
       <c r="D27" s="14" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E27" s="6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F27" s="7" t="s">
         <v>22</v>
@@ -1896,10 +1909,10 @@
         <v>20</v>
       </c>
       <c r="D28" s="14" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E28" s="6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F28" s="7" t="s">
         <v>22</v>

--- a/Buyer hub/Orders/Manual testcases/Final Orders testcases.xlsx
+++ b/Buyer hub/Orders/Manual testcases/Final Orders testcases.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\zm-buyerautomation\Buyer hub\Orders\Manual testcases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF115918-D7D6-4FBA-BDAC-49DBA96248E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8252E65-06E1-4A62-A0F8-6E7E2DF01743}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1236,7 +1236,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="C3" workbookViewId="0">
       <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
